--- a/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,74%</t>
+          <t>-13,73%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,22</t>
+          <t>0,0; 22,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 2,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 7,81</t>
+          <t>-14,03; 25,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 3,98</t>
+          <t>-42,12; 19,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 130,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,75; 51,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 51,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 10,7</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-14,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,98</t>
+          <t>-5,21; 6,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 5,72</t>
+          <t>-7,3; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 13,06</t>
+          <t>-9,34; 7,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 15,61</t>
+          <t>-17,33; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,8; 184,42</t>
+          <t>-51,7; 130,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 86,02</t>
+          <t>-80,75; 51,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 109,33</t>
+          <t>-38,67; 51,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 64,63</t>
+          <t>-35,19; 10,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-18,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>-6,52%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,54</t>
+          <t>-7,28; 5,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 8,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 25,04</t>
+          <t>-14,93; 5,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 19,96</t>
+          <t>-14,44; 10,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,93; 147,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,67; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,08; 38,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,36; 62,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>117,83%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>13,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 5,35</t>
+          <t>-5,4; 6,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,93</t>
+          <t>-9,35; 5,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 5,76</t>
+          <t>-4,76; 13,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 10,0</t>
+          <t>-8,77; 15,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 147,46</t>
+          <t>-57,8; 184,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,67; —</t>
+          <t>-69,25; 86,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 38,56</t>
+          <t>-23,44; 109,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 62,84</t>
+          <t>-23,11; 64,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,54</t>
+          <t>0,0; 23,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 25,04</t>
+          <t>-13,91; 20,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,2</t>
+          <t>-5,25; 8,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 7,42</t>
+          <t>-8,3; 6,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 5,92</t>
+          <t>-19,67; 5,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 19,21</t>
+          <t>-14,38; 17,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 360,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 271,06</t>
+          <t>-82,99; 276,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,22; 31,69</t>
+          <t>-60,85; 31,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 77,84</t>
+          <t>-33,32; 69,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,22</t>
+          <t>-5,24; 5,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 2,01</t>
+          <t>-7,44; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 7,81</t>
+          <t>-8,94; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 3,98</t>
+          <t>-17,73; 4,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 130,49</t>
+          <t>-50,8; 121,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,75; 51,32</t>
+          <t>-78,95; 70,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 51,36</t>
+          <t>-38,38; 57,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 10,7</t>
+          <t>-36,38; 11,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 5,35</t>
+          <t>-7,06; 5,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,93</t>
+          <t>-1,29; 9,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 5,76</t>
+          <t>-15,24; 6,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 10,0</t>
+          <t>-13,79; 9,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 147,46</t>
+          <t>-67,33; 161,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,67; —</t>
+          <t>-48,47; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 38,56</t>
+          <t>-56,23; 43,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 62,84</t>
+          <t>-47,46; 61,94</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,98</t>
+          <t>-5,57; 7,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 5,72</t>
+          <t>-8,79; 5,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 13,06</t>
+          <t>-3,86; 12,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 15,61</t>
+          <t>-7,02; 16,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,8; 184,42</t>
+          <t>-58,95; 184,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 86,02</t>
+          <t>-64,69; 103,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 109,33</t>
+          <t>-18,32; 114,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 64,63</t>
+          <t>-20,15; 68,17</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,07</t>
+          <t>-2,28; 3,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,05</t>
+          <t>-3,75; 2,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,28</t>
+          <t>-5,58; 4,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 3,18</t>
+          <t>-8,08; 4,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 77,58</t>
+          <t>-29,31; 66,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 44,06</t>
+          <t>-44,85; 45,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 24,11</t>
+          <t>-25,81; 23,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 10,64</t>
+          <t>-21,98; 13,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,02</t>
+          <t>0,0; 33,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 20,98</t>
+          <t>-14,42; 21,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 19,96</t>
+          <t>-43,18; 18,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 8,9</t>
+          <t>-4,46; 9,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 6,82</t>
+          <t>-7,33; 7,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 5,52</t>
+          <t>-20,31; 5,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 17,61</t>
+          <t>-13,73; 18,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,2; 459,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 276,16</t>
+          <t>-80,58; 334,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 31,46</t>
+          <t>-63,08; 28,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 69,63</t>
+          <t>-33,79; 73,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 5,78</t>
+          <t>-4,88; 6,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 2,17</t>
+          <t>-7,16; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 8,39</t>
+          <t>-8,06; 8,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 4,67</t>
+          <t>-17,26; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 121,34</t>
+          <t>-47,22; 118,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 70,93</t>
+          <t>-79,69; 64,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 57,44</t>
+          <t>-34,02; 56,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 11,13</t>
+          <t>-34,92; 8,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,78</t>
+          <t>-7,12; 5,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,5</t>
+          <t>-1,69; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 6,17</t>
+          <t>-14,7; 5,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 9,01</t>
+          <t>-14,35; 9,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 161,71</t>
+          <t>-69,26; 147,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,23; 43,54</t>
+          <t>-56,64; 37,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 61,94</t>
+          <t>-49,08; 61,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,1</t>
+          <t>-5,68; 7,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 5,9</t>
+          <t>-9,42; 4,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 12,99</t>
+          <t>-4,21; 13,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 16,31</t>
+          <t>-6,4; 15,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,95; 184,3</t>
+          <t>-60,03; 198,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 103,53</t>
+          <t>-68,54; 87,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 114,89</t>
+          <t>-21,26; 104,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 68,17</t>
+          <t>-17,36; 66,21</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,79</t>
+          <t>-2,74; 3,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,29</t>
+          <t>-3,52; 2,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,11</t>
+          <t>-5,6; 4,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,23</t>
+          <t>-8,07; 3,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 66,63</t>
+          <t>-32,65; 70,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 45,6</t>
+          <t>-45,89; 45,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 23,51</t>
+          <t>-25,92; 24,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 13,67</t>
+          <t>-22,43; 12,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-24,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,45</t>
+          <t>-3,17; 8,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 5,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 21,38</t>
+          <t>-16,86; 6,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 18,83</t>
+          <t>-11,51; 16,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,05; 526,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,21; 225,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,72; 42,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,54; 92,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,98%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>-16,34%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 9,55</t>
+          <t>-5,21; 6,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 7,48</t>
+          <t>-7,3; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 5,35</t>
+          <t>-9,34; 7,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 18,36</t>
+          <t>-17,82; 3,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,2; 459,06</t>
+          <t>-51,7; 130,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,58; 334,33</t>
+          <t>-80,75; 51,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 28,68</t>
+          <t>-38,67; 51,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 73,68</t>
+          <t>-37,1; 9,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>117,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-18,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,74%</t>
+          <t>-2,85%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 6,27</t>
+          <t>-7,28; 5,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 1,92</t>
+          <t>-2,06; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 8,53</t>
+          <t>-14,93; 5,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 3,25</t>
+          <t>-12,54; 10,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 118,74</t>
+          <t>-68,93; 147,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,69; 64,85</t>
+          <t>-59,67; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 56,1</t>
+          <t>-55,08; 38,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 8,68</t>
+          <t>-48,79; 70,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>117,83%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,65</t>
+          <t>-5,4; 6,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,2</t>
+          <t>-9,35; 5,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 5,59</t>
+          <t>-4,76; 13,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 9,4</t>
+          <t>-7,79; 15,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,26; 147,72</t>
+          <t>-57,8; 184,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,25; 86,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 37,06</t>
+          <t>-23,44; 109,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 61,13</t>
+          <t>-22,74; 68,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-5,64%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,08</t>
+          <t>-2,18; 4,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,91</t>
+          <t>-3,45; 2,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 13,39</t>
+          <t>-5,33; 4,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,63</t>
+          <t>-7,83; 3,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,03; 198,84</t>
+          <t>-28,06; 77,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,54; 87,28</t>
+          <t>-43,59; 44,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 104,07</t>
+          <t>-24,63; 24,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 66,21</t>
+          <t>-22,12; 13,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-9,11%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-2,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 3,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 2,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 4,01</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 3,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 70,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-45,89; 45,51</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-25,92; 24,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,43; 12,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
